--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_6/bcw_train_60_test_40_depth_6_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_6/bcw_train_60_test_40_depth_6_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9513888888888888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.958041958041958</v>
       </c>
       <c r="D2" t="n">
-        <v>0.903954802259887</v>
+        <v>0.9547038327526133</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9632352941176471</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.916083916083916</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9390681003584229</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9429824561403509</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9164002557544757</v>
+        <v>0.9399801587301587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9286301933360757</v>
+        <v>0.9378445084327437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9215114513091549</v>
+        <v>0.9388903779147681</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9283144321801948</v>
+        <v>0.9428823795600111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9259776164181793</v>
+        <v>0.9429130988822902</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_6/bcw_train_60_test_40_depth_6_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_6/bcw_train_60_test_40_depth_6_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9513888888888888</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.958041958041958</v>
+        <v>0.96</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9547038327526133</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
         <v>143</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.93</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9176470588235294</v>
+        <v>0.92</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.92</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9429824561403509</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9429824561403509</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9429824561403509</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9399801587301587</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9378445084327437</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9388903779147681</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9428823795600111</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9429130988822902</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>
